--- a/AppDefinition.xlsx
+++ b/AppDefinition.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xltemplating\AppGenerator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="14" r:id="rId1"/>
@@ -26,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Database-Entity'!$D$3:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -832,10 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>app.ddl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rootPath</t>
   </si>
   <si>
@@ -893,10 +894,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>./generated/ddl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>properties#description</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -975,9 +972,6 @@
   <si>
     <t>dao_mybatis.txt</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>com.xlbean.sample</t>
   </si>
   <si>
     <t>preExecute#logic, files#generate</t>
@@ -1222,23 +1216,35 @@
 codeMasterMap = codes.aggregate('codes', 'type').toMap('type')
 entities.each{ entity -&gt; entity.put('codeMaster', codeMasterMap)}</t>
   </si>
+  <si>
+    <t>schema.sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.xlbean.sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1246,7 +1252,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1285,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,14 +1343,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,49 +1664,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="2.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" customWidth="1"/>
-    <col min="19" max="19" width="41.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" customWidth="1"/>
-    <col min="23" max="23" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.4140625" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.4140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.4140625" customWidth="1"/>
+    <col min="10" max="10" width="32.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.4140625" customWidth="1"/>
+    <col min="13" max="13" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.75" customWidth="1"/>
+    <col min="15" max="15" width="2.4140625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="37.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="2.4140625" customWidth="1"/>
+    <col min="19" max="19" width="41.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.4140625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="23.25" customWidth="1"/>
+    <col min="23" max="23" width="32.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -1702,10 +1715,10 @@
         <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G1" t="s">
         <v>193</v>
@@ -1726,33 +1739,38 @@
         <v>196</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="V1" t="s">
-        <v>312</v>
-      </c>
-      <c r="W1" t="s">
-        <v>310</v>
+        <v>302</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="X1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="6" customFormat="1">
+        <v>307</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1762,8 +1780,9 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:24" s="6" customFormat="1">
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="O4" s="14"/>
@@ -1772,13 +1791,14 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1793,11 +1813,11 @@
       </c>
       <c r="H5" s="7" t="str">
         <f>$C$3&amp;"."&amp;G5</f>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J5" s="7" t="str">
         <f>H5&amp;".entity"</f>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K5" s="7" t="str">
         <f>C5</f>
@@ -1805,7 +1825,7 @@
       </c>
       <c r="M5" s="7" t="str">
         <f>H5&amp;".dao"</f>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N5" s="7" t="str">
         <f>C5&amp;"Dao"</f>
@@ -1813,7 +1833,7 @@
       </c>
       <c r="P5" s="7" t="str">
         <f>M5&amp;".mapper"</f>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q5" s="7" t="str">
         <f>K5&amp;"Mapper"</f>
@@ -1821,7 +1841,7 @@
       </c>
       <c r="S5" s="7" t="str">
         <f>M5&amp;".mapper.gen"</f>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T5" s="7" t="str">
         <f>K5&amp;"MapperGen"</f>
@@ -1830,18 +1850,22 @@
       <c r="V5" t="s">
         <v>192</v>
       </c>
-      <c r="W5" s="7" t="str">
+      <c r="W5" s="18" t="str">
+        <f>"/"&amp;LOWER(B5)&amp;V5</f>
+        <v>/webshop/customers</v>
+      </c>
+      <c r="X5" s="7" t="str">
         <f>H5&amp;".api"</f>
-        <v>com.xlbean.sample.webshop.api</v>
-      </c>
-      <c r="X5" s="7" t="str">
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y5" s="7" t="str">
         <f>C5&amp;"Api"</f>
         <v>CustomerApi</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
@@ -1856,11 +1880,11 @@
       </c>
       <c r="H6" s="7" t="str">
         <f t="shared" ref="H6:H11" si="2">$C$3&amp;"."&amp;G6</f>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J6" s="7" t="str">
         <f t="shared" ref="J6:J11" si="3">H6&amp;".entity"</f>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" ref="K6:K11" si="4">C6</f>
@@ -1868,7 +1892,7 @@
       </c>
       <c r="M6" s="7" t="str">
         <f t="shared" ref="M6:M11" si="5">H6&amp;".dao"</f>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N6" s="7" t="str">
         <f t="shared" ref="N6:N11" si="6">C6&amp;"Dao"</f>
@@ -1876,7 +1900,7 @@
       </c>
       <c r="P6" s="7" t="str">
         <f t="shared" ref="P6:P11" si="7">M6&amp;".mapper"</f>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q6" s="7" t="str">
         <f t="shared" ref="Q6:Q11" si="8">K6&amp;"Mapper"</f>
@@ -1884,27 +1908,31 @@
       </c>
       <c r="S6" s="7" t="str">
         <f t="shared" ref="S6:S11" si="9">M6&amp;".mapper.gen"</f>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T6" s="7" t="str">
         <f t="shared" ref="T6:T11" si="10">K6&amp;"MapperGen"</f>
         <v>CartMapperGen</v>
       </c>
       <c r="V6" t="s">
-        <v>314</v>
-      </c>
-      <c r="W6" s="7" t="str">
-        <f t="shared" ref="W6:W11" si="11">H6&amp;".api"</f>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>311</v>
+      </c>
+      <c r="W6" s="18" t="str">
+        <f t="shared" ref="W6:W11" si="11">"/"&amp;LOWER(B6)&amp;V6</f>
+        <v>/webshop/carts/{customerId}</v>
       </c>
       <c r="X6" s="7" t="str">
-        <f t="shared" ref="X6:X11" si="12">C6&amp;"Api"</f>
+        <f t="shared" ref="X6:X11" si="12">H6&amp;".api"</f>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y6" s="7" t="str">
+        <f t="shared" ref="Y6:Y11" si="13">C6&amp;"Api"</f>
         <v>CartApi</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -1919,11 +1947,11 @@
       </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1931,7 +1959,7 @@
       </c>
       <c r="M7" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N7" s="7" t="str">
         <f t="shared" si="6"/>
@@ -1939,7 +1967,7 @@
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q7" s="7" t="str">
         <f t="shared" si="8"/>
@@ -1947,7 +1975,7 @@
       </c>
       <c r="S7" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T7" s="7" t="str">
         <f t="shared" si="10"/>
@@ -1956,18 +1984,22 @@
       <c r="V7" t="s">
         <v>184</v>
       </c>
-      <c r="W7" s="7" t="str">
+      <c r="W7" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>/webshop/orders</v>
       </c>
       <c r="X7" s="7" t="str">
         <f t="shared" si="12"/>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y7" s="7" t="str">
+        <f t="shared" si="13"/>
         <v>OrderApi</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -1982,11 +2014,11 @@
       </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J8" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1994,7 +2026,7 @@
       </c>
       <c r="M8" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N8" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2002,7 +2034,7 @@
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q8" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2010,7 +2042,7 @@
       </c>
       <c r="S8" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T8" s="7" t="str">
         <f t="shared" si="10"/>
@@ -2019,18 +2051,22 @@
       <c r="V8" t="s">
         <v>185</v>
       </c>
-      <c r="W8" s="7" t="str">
+      <c r="W8" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>/webshop/orders/{orderId}/details</v>
       </c>
       <c r="X8" s="7" t="str">
         <f t="shared" si="12"/>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y8" s="7" t="str">
+        <f t="shared" si="13"/>
         <v>OrderDetailApi</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -2045,11 +2081,11 @@
       </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2057,7 +2093,7 @@
       </c>
       <c r="M9" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N9" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2065,7 +2101,7 @@
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q9" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2073,7 +2109,7 @@
       </c>
       <c r="S9" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T9" s="7" t="str">
         <f t="shared" si="10"/>
@@ -2082,18 +2118,22 @@
       <c r="V9" t="s">
         <v>186</v>
       </c>
-      <c r="W9" s="7" t="str">
+      <c r="W9" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>/webshop/products</v>
       </c>
       <c r="X9" s="7" t="str">
         <f t="shared" si="12"/>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y9" s="7" t="str">
+        <f t="shared" si="13"/>
         <v>ProductApi</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -2108,11 +2148,11 @@
       </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2120,7 +2160,7 @@
       </c>
       <c r="M10" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N10" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2128,7 +2168,7 @@
       </c>
       <c r="P10" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q10" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2136,7 +2176,7 @@
       </c>
       <c r="S10" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T10" s="7" t="str">
         <f t="shared" si="10"/>
@@ -2145,18 +2185,22 @@
       <c r="V10" t="s">
         <v>187</v>
       </c>
-      <c r="W10" s="7" t="str">
+      <c r="W10" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>/webshop/stocks</v>
       </c>
       <c r="X10" s="7" t="str">
         <f t="shared" si="12"/>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y10" s="7" t="str">
+        <f t="shared" si="13"/>
         <v>StockApi</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -2171,11 +2215,11 @@
       </c>
       <c r="H11" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>com.xlbean.sample.webshop</v>
+        <v>org.xlbean.sample.webshop</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>com.xlbean.sample.webshop.entity</v>
+        <v>org.xlbean.sample.webshop.entity</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -2183,7 +2227,7 @@
       </c>
       <c r="M11" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>com.xlbean.sample.webshop.dao</v>
+        <v>org.xlbean.sample.webshop.dao</v>
       </c>
       <c r="N11" s="7" t="str">
         <f t="shared" si="6"/>
@@ -2191,7 +2235,7 @@
       </c>
       <c r="P11" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>com.xlbean.sample.webshop.dao.mapper</v>
+        <v>org.xlbean.sample.webshop.dao.mapper</v>
       </c>
       <c r="Q11" s="7" t="str">
         <f t="shared" si="8"/>
@@ -2199,7 +2243,7 @@
       </c>
       <c r="S11" s="7" t="str">
         <f t="shared" si="9"/>
-        <v>com.xlbean.sample.webshop.dao.mapper.gen</v>
+        <v>org.xlbean.sample.webshop.dao.mapper.gen</v>
       </c>
       <c r="T11" s="7" t="str">
         <f t="shared" si="10"/>
@@ -2208,16 +2252,20 @@
       <c r="V11" t="s">
         <v>188</v>
       </c>
-      <c r="W11" s="7" t="str">
+      <c r="W11" s="18" t="str">
         <f t="shared" si="11"/>
-        <v>com.xlbean.sample.webshop.api</v>
+        <v>/webshop/addresses</v>
       </c>
       <c r="X11" s="7" t="str">
         <f t="shared" si="12"/>
+        <v>org.xlbean.sample.webshop.api</v>
+      </c>
+      <c r="Y11" s="7" t="str">
+        <f t="shared" si="13"/>
         <v>AddressMasterApi</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="J12" s="7"/>
@@ -2228,10 +2276,10 @@
       <c r="Q12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="J13" s="7"/>
@@ -2242,10 +2290,10 @@
       <c r="Q13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="W13" s="7"/>
       <c r="X13" s="7"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="J14" s="7"/>
@@ -2256,8 +2304,8 @@
       <c r="Q14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="W14" s="7"/>
       <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2267,83 +2315,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9"/>
-    <col min="9" max="9" width="9.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="2" width="10.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="73.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="9"/>
+    <col min="9" max="9" width="9.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="9" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>205</v>
@@ -2352,34 +2400,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="66" customHeight="1">
+    <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>207</v>
@@ -2397,9 +2445,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="9" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -2412,25 +2460,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S5,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G9" s="9" t="str">
         <f>Entities!T5&amp;".java"</f>
         <v>CustomerMapperGen.java</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="9" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -2441,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -2454,32 +2502,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S6,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G10" s="10" t="str">
         <f>Entities!T6&amp;".java"</f>
         <v>CartMapperGen.java</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2492,32 +2540,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S7,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G11" s="10" t="str">
         <f>Entities!T7&amp;".java"</f>
         <v>OrderMapperGen.java</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2530,32 +2578,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S8,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G12" s="10" t="str">
         <f>Entities!T8&amp;".java"</f>
         <v>OrderDetailMapperGen.java</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2568,32 +2616,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S9,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G13" s="10" t="str">
         <f>Entities!T9&amp;".java"</f>
         <v>ProductMapperGen.java</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2606,32 +2654,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S10,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G14" s="10" t="str">
         <f>Entities!T10&amp;".java"</f>
         <v>StockMapperGen.java</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2644,32 +2692,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S11,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G15" s="10" t="str">
         <f>Entities!T11&amp;".java"</f>
         <v>AddressMasterMapperGen.java</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2682,7 +2730,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S12,".","/")</f>
@@ -2693,21 +2741,21 @@
         <v>.java</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2720,7 +2768,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S13,".","/")</f>
@@ -2731,21 +2779,21 @@
         <v>.java</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2758,7 +2806,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S14,".","/")</f>
@@ -2769,21 +2817,21 @@
         <v>.java</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2796,7 +2844,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F19" s="10" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S15,".","/")</f>
@@ -2807,14 +2855,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -2832,83 +2880,83 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9"/>
-    <col min="9" max="9" width="9.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="9"/>
+    <col min="1" max="2" width="10.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="66.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="9"/>
+    <col min="9" max="9" width="9.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="9" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="9" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>205</v>
@@ -2917,34 +2965,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="121.5" customHeight="1">
+    <row r="5" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>207</v>
@@ -2962,9 +3010,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="9" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -2977,25 +3025,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S5,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G9" s="9" t="str">
         <f>Entities!T5&amp;".xml"</f>
         <v>CustomerMapperGen.xml</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="9" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -3006,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -3019,32 +3067,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S6,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>Entities!T6&amp;".xml"</f>
         <v>CartMapperGen.xml</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3057,32 +3105,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S7,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G11" s="9" t="str">
         <f>Entities!T7&amp;".xml"</f>
         <v>OrderMapperGen.xml</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3095,32 +3143,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S8,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G12" s="9" t="str">
         <f>Entities!T8&amp;".xml"</f>
         <v>OrderDetailMapperGen.xml</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3133,32 +3181,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S9,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G13" s="9" t="str">
         <f>Entities!T9&amp;".xml"</f>
         <v>ProductMapperGen.xml</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3171,32 +3219,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S10,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G14" s="9" t="str">
         <f>Entities!T10&amp;".xml"</f>
         <v>StockMapperGen.xml</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3209,32 +3257,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S11,".","/")</f>
-        <v>./generated/webshop/src/main/resources/com/xlbean/sample/webshop/dao/mapper/gen</v>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper/gen</v>
       </c>
       <c r="G15" s="9" t="str">
         <f>Entities!T11&amp;".xml"</f>
         <v>AddressMasterMapperGen.xml</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3247,7 +3295,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S12,".","/")</f>
@@ -3258,21 +3306,21 @@
         <v>.xml</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3285,7 +3333,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S13,".","/")</f>
@@ -3296,21 +3344,21 @@
         <v>.xml</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3323,7 +3371,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S14,".","/")</f>
@@ -3334,21 +3382,21 @@
         <v>.xml</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3361,7 +3409,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S15,".","/")</f>
@@ -3372,14 +3420,14 @@
         <v>.xml</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -3397,19 +3445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -3420,7 +3468,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -3428,7 +3476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>130</v>
       </c>
@@ -3436,7 +3484,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>120</v>
       </c>
@@ -3444,7 +3492,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>124</v>
       </c>
@@ -3452,7 +3500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>122</v>
       </c>
@@ -3467,12 +3515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3480,34 +3528,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="14" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
+    <col min="10" max="10" width="17.58203125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="19.4140625" customWidth="1"/>
+    <col min="13" max="14" width="14.25" customWidth="1"/>
+    <col min="17" max="17" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3548,7 +3596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>66</v>
       </c>
@@ -3556,7 +3604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -3609,8 +3657,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="5.0999999999999996" customHeight="1"/>
-    <row r="5" spans="1:19" s="1" customFormat="1">
+    <row r="4" spans="1:19" ht="5.15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3648,7 +3696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3680,7 +3728,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -3709,7 +3757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3786,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -3802,7 +3850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -3838,7 +3886,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -3870,7 +3918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +3947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -3928,7 +3976,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15"/>
       <c r="B15" s="1" t="s">
         <v>17</v>
@@ -3964,7 +4012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -3993,7 +4041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -4022,7 +4070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1">
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -4058,7 +4106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -4090,7 +4138,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -4119,7 +4167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -4148,7 +4196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22"/>
       <c r="B22" s="1" t="s">
         <v>17</v>
@@ -4184,7 +4232,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -4213,7 +4261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -4245,7 +4293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -4277,7 +4325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>17</v>
       </c>
@@ -4309,7 +4357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -4338,7 +4386,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28"/>
       <c r="B28" s="1" t="s">
         <v>17</v>
@@ -4374,7 +4422,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -4409,7 +4457,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>17</v>
       </c>
@@ -4438,7 +4486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>17</v>
       </c>
@@ -4467,7 +4515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1">
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32"/>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -4503,7 +4551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>17</v>
       </c>
@@ -4564,7 +4612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>17</v>
       </c>
@@ -4594,7 +4642,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D3:D35"/>
+  <autoFilter ref="D3:D35" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4602,24 +4650,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="14" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="7" width="4.25" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="14" width="4.25" customWidth="1"/>
+    <col min="17" max="17" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4660,12 +4708,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -4712,7 +4760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>82</v>
       </c>
@@ -4732,7 +4780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>82</v>
       </c>
@@ -4752,7 +4800,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>82</v>
       </c>
@@ -4772,7 +4820,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>82</v>
       </c>
@@ -4792,7 +4840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>82</v>
       </c>
@@ -4812,7 +4860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>82</v>
       </c>
@@ -4832,7 +4880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>82</v>
       </c>
@@ -4852,7 +4900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>82</v>
       </c>
@@ -4872,7 +4920,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" t="s">
         <v>82</v>
       </c>
@@ -4892,7 +4940,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>112</v>
       </c>
@@ -4912,7 +4960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>112</v>
       </c>
@@ -4932,7 +4980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>112</v>
       </c>
@@ -4952,7 +5000,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
         <v>94</v>
       </c>
@@ -4972,7 +5020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>94</v>
       </c>
@@ -4992,7 +5040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>94</v>
       </c>
@@ -5012,7 +5060,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
         <v>94</v>
       </c>
@@ -5032,7 +5080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>94</v>
       </c>
@@ -5052,7 +5100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
         <v>101</v>
       </c>
@@ -5072,7 +5120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
         <v>101</v>
       </c>
@@ -5092,7 +5140,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>101</v>
       </c>
@@ -5112,7 +5160,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" t="s">
         <v>101</v>
       </c>
@@ -5132,7 +5180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
         <v>107</v>
       </c>
@@ -5152,7 +5200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" t="s">
         <v>107</v>
       </c>
@@ -5172,7 +5220,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="3:18">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
         <v>107</v>
       </c>
@@ -5192,7 +5240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>109</v>
       </c>
@@ -5212,7 +5260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" t="s">
         <v>110</v>
       </c>
@@ -5232,7 +5280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
         <v>145</v>
       </c>
@@ -5252,7 +5300,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="3:18">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
         <v>145</v>
       </c>
@@ -5279,28 +5327,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="12.4140625" customWidth="1"/>
+    <col min="12" max="12" width="15.4140625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5311,10 +5359,10 @@
         <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>143</v>
@@ -5326,49 +5374,49 @@
         <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" t="s">
         <v>218</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>219</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>220</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>221</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>222</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>224</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>225</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>226</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>227</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>228</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>229</v>
       </c>
-      <c r="W1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>183</v>
       </c>
@@ -5391,9 +5439,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C3,Entities!$C$5:$C$11,0))</f>
@@ -5447,7 +5495,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C4,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5497,7 +5545,7 @@
         <v>varchar(40)</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C5,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5547,7 +5595,7 @@
         <v>varchar(40)</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C6,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5597,7 +5645,7 @@
         <v>datetime</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C7,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5615,7 +5663,7 @@
         <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5650,7 +5698,7 @@
         <v>char(50)</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C8,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5700,7 +5748,7 @@
         <v>varchar(7)</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C9,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5750,7 +5798,7 @@
         <v>varchar(255)</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C10,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5800,7 +5848,7 @@
         <v>varchar(255)</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C11,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5850,7 +5898,7 @@
         <v>varchar(255)</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="6" customFormat="1">
+    <row r="12" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C12,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5859,16 +5907,16 @@
         <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5903,7 +5951,7 @@
         <v>char(50)</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C13,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -5956,7 +6004,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C14,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6009,7 +6057,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C15,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6059,7 +6107,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="16" customFormat="1">
+    <row r="16" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C16,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6068,7 +6116,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>129</v>
@@ -6109,7 +6157,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C17,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6162,7 +6210,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C18,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6212,7 +6260,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C19,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6262,7 +6310,7 @@
         <v>datetime</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C20,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6271,7 +6319,7 @@
         <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -6312,7 +6360,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C21,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6365,7 +6413,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C22,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6418,7 +6466,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C23,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6468,7 +6516,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C24,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6518,7 +6566,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C25,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6571,7 +6619,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C26,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6621,7 +6669,7 @@
         <v>varchar(50)</v>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C27,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6671,7 +6719,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C28,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6724,7 +6772,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C29,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6774,7 +6822,7 @@
         <v>int(11)</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C30,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6827,7 +6875,7 @@
         <v>varchar(7)</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="7" t="str">
         <f>INDEX(Entities!$B$5:$B$11,MATCH(EntityProperties!C31,Entities!$C$5:$C$11,0))</f>
         <v>WebShop</v>
@@ -6877,7 +6925,7 @@
         <v>varchar(100)</v>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -6888,7 +6936,7 @@
       <c r="R32" s="7"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="2:22">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -6899,7 +6947,7 @@
       <c r="R33" s="7"/>
       <c r="V33" s="7"/>
     </row>
-    <row r="34" spans="2:22">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -6918,27 +6966,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>148</v>
@@ -6947,7 +6995,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>140</v>
       </c>
@@ -6958,12 +7006,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -6972,9 +7020,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -6983,26 +7031,26 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>248</v>
       </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>250</v>
-      </c>
-      <c r="D6" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7012,130 +7060,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="11" customWidth="1"/>
-    <col min="4" max="6" width="12.85546875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" style="11"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="11" customWidth="1"/>
+    <col min="4" max="6" width="12.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="10" width="8.75" style="11"/>
+    <col min="12" max="12" width="13.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>278</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>281</v>
-      </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H3" t="s">
         <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7145,82 +7193,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s">
         <v>255</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>257</v>
       </c>
-      <c r="E1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
         <v>205</v>
@@ -7229,17 +7277,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="312.75" customHeight="1">
+    <row r="5" spans="1:16" ht="312.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -7250,15 +7298,15 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1">
+    <row r="7" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>207</v>
@@ -7276,9 +7324,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
@@ -7290,13 +7338,14 @@
         <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" t="s">
         <v>233</v>
       </c>
+      <c r="F9" s="17" t="str">
+        <f>"./generated/"&amp;Entities!G5&amp;"/src/main/resources/"</f>
+        <v>./generated/webshop/src/main/resources/</v>
+      </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7310,83 +7359,83 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="69.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="16"/>
-    <col min="9" max="9" width="9.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="16" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="16" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="2" width="10.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="69.58203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="16"/>
+    <col min="9" max="9" width="9.75" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="16" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="16" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="16" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>205</v>
@@ -7395,34 +7444,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="218.45" customHeight="1">
+    <row r="5" spans="1:16" ht="218.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>207</v>
@@ -7440,9 +7489,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="16" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -7455,25 +7504,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F9" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W5,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X5,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G9" s="16" t="str">
-        <f>Entities!X5&amp;".java"</f>
+        <f>Entities!Y5&amp;".java"</f>
         <v>CustomerApi.java</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="16" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -7484,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="16" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -7497,32 +7546,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F10" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W6,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X6,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G10" s="16" t="str">
-        <f>Entities!X6&amp;".java"</f>
+        <f>Entities!Y6&amp;".java"</f>
         <v>CartApi.java</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="16" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7535,32 +7584,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W7,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X7,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G11" s="16" t="str">
-        <f>Entities!X7&amp;".java"</f>
+        <f>Entities!Y7&amp;".java"</f>
         <v>OrderApi.java</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7573,32 +7622,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F12" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W8,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X8,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G12" s="16" t="str">
-        <f>Entities!X8&amp;".java"</f>
+        <f>Entities!Y8&amp;".java"</f>
         <v>OrderDetailApi.java</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7611,32 +7660,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F13" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W9,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X9,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G13" s="16" t="str">
-        <f>Entities!X9&amp;".java"</f>
+        <f>Entities!Y9&amp;".java"</f>
         <v>ProductApi.java</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7649,32 +7698,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F14" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W10,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X10,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G14" s="16" t="str">
-        <f>Entities!X10&amp;".java"</f>
+        <f>Entities!Y10&amp;".java"</f>
         <v>StockApi.java</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7687,32 +7736,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F15" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W11,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/api</v>
+        <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X11,".","/")</f>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/api</v>
       </c>
       <c r="G15" s="16" t="str">
-        <f>Entities!X11&amp;".java"</f>
+        <f>Entities!Y11&amp;".java"</f>
         <v>AddressMasterApi.java</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7725,32 +7774,32 @@
         <v>212</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F16" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W12,".","/")</f>
+        <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X12,".","/")</f>
         <v>./generated//src/main/java/</v>
       </c>
       <c r="G16" s="16" t="str">
-        <f>Entities!X12&amp;".java"</f>
+        <f>Entities!Y12&amp;".java"</f>
         <v>.java</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7763,32 +7812,32 @@
         <v>212</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F17" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W13,".","/")</f>
+        <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X13,".","/")</f>
         <v>./generated//src/main/java/</v>
       </c>
       <c r="G17" s="16" t="str">
-        <f>Entities!X13&amp;".java"</f>
+        <f>Entities!Y13&amp;".java"</f>
         <v>.java</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7801,32 +7850,32 @@
         <v>212</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F18" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W14,".","/")</f>
+        <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X14,".","/")</f>
         <v>./generated//src/main/java/</v>
       </c>
       <c r="G18" s="16" t="str">
-        <f>Entities!X14&amp;".java"</f>
+        <f>Entities!Y14&amp;".java"</f>
         <v>.java</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7839,25 +7888,25 @@
         <v>212</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F19" s="16" t="str">
-        <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!W15,".","/")</f>
+        <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X15,".","/")</f>
         <v>./generated//src/main/java/</v>
       </c>
       <c r="G19" s="16" t="str">
-        <f>Entities!X15&amp;".java"</f>
+        <f>Entities!Y15&amp;".java"</f>
         <v>.java</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -7875,83 +7924,83 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="69.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="4"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="2" width="10.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="69.58203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="4"/>
+    <col min="9" max="9" width="9.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>205</v>
@@ -7960,34 +8009,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="66" customHeight="1">
+    <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>207</v>
@@ -8005,9 +8054,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="4" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -8020,25 +8069,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J5,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>Entities!K5&amp;".java"</f>
         <v>Customer.java</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -8049,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -8062,32 +8111,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J6,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>Entities!K6&amp;".java"</f>
         <v>Cart.java</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ref="J10:J15" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8100,32 +8149,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J7,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>Entities!K7&amp;".java"</f>
         <v>Order.java</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8138,32 +8187,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J8,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>Entities!K8&amp;".java"</f>
         <v>OrderDetail.java</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8176,32 +8225,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J9,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>Entities!K9&amp;".java"</f>
         <v>Product.java</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8214,32 +8263,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J10,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G14" s="4" t="str">
         <f>Entities!K10&amp;".java"</f>
         <v>Stock.java</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8252,32 +8301,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J11,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/entity</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/entity</v>
       </c>
       <c r="G15" s="4" t="str">
         <f>Entities!K11&amp;".java"</f>
         <v>AddressMaster.java</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8290,7 +8339,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J12,".","/")</f>
@@ -8301,14 +8350,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="6" t="str">
         <f t="shared" ref="J16:J19" si="3">"entities["&amp;C16&amp;"]"</f>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -8316,7 +8365,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8329,7 +8378,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J13,".","/")</f>
@@ -8340,14 +8389,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -8355,7 +8404,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8368,7 +8417,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J14,".","/")</f>
@@ -8379,14 +8428,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -8394,7 +8443,7 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8407,7 +8456,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J15,".","/")</f>
@@ -8418,14 +8467,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -8444,83 +8493,83 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="76.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="6"/>
-    <col min="9" max="9" width="9.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="2" width="10.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="76.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="6"/>
+    <col min="9" max="9" width="9.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="6" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>205</v>
@@ -8529,34 +8578,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="66" customHeight="1">
+    <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>207</v>
@@ -8574,9 +8623,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="6" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -8589,25 +8638,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M5,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G9" s="6" t="str">
         <f>Entities!N5&amp;".java"</f>
         <v>CustomerDao.java</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="6" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -8618,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="6" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -8631,32 +8680,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M6,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>Entities!N6&amp;".java"</f>
         <v>CartDao.java</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="6" t="str">
         <f t="shared" ref="J10:J15" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8669,32 +8718,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M7,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G11" s="6" t="str">
         <f>Entities!N7&amp;".java"</f>
         <v>OrderDao.java</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8707,32 +8756,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M8,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G12" s="6" t="str">
         <f>Entities!N8&amp;".java"</f>
         <v>OrderDetailDao.java</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8745,32 +8794,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M9,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G13" s="6" t="str">
         <f>Entities!N9&amp;".java"</f>
         <v>ProductDao.java</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8783,32 +8832,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M10,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>Entities!N10&amp;".java"</f>
         <v>StockDao.java</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8821,32 +8870,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M11,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao</v>
       </c>
       <c r="G15" s="6" t="str">
         <f>Entities!N11&amp;".java"</f>
         <v>AddressMasterDao.java</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8859,7 +8908,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M12,".","/")</f>
@@ -8870,21 +8919,21 @@
         <v>.java</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="6" t="str">
         <f t="shared" ref="J16:J19" si="3">"entities["&amp;C16&amp;"]"</f>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8897,7 +8946,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M13,".","/")</f>
@@ -8908,21 +8957,21 @@
         <v>.java</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8935,7 +8984,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M14,".","/")</f>
@@ -8946,21 +8995,21 @@
         <v>.java</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="6" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8973,7 +9022,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M15,".","/")</f>
@@ -8984,14 +9033,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -9009,83 +9058,83 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="73.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="14"/>
-    <col min="9" max="9" width="9.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="14" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="14" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="14" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="14"/>
+    <col min="1" max="2" width="10.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="73.25" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="14"/>
+    <col min="9" max="9" width="9.75" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="14" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="14" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="14" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="14" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>205</v>
@@ -9094,34 +9143,34 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="66" customHeight="1">
+    <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+        <v>258</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>207</v>
@@ -9139,9 +9188,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B9" s="14" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -9154,25 +9203,25 @@
         <v>212</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P5,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G9" s="14" t="str">
         <f>Entities!Q5&amp;".java"</f>
         <v>CustomerMapper.java</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J9" s="14" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L9" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -9183,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="14" t="b">
         <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
         <v>1</v>
@@ -9196,32 +9245,32 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P6,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>Entities!Q6&amp;".java"</f>
         <v>CartMapper.java</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J10" s="14" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L10" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Cart'])</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9234,32 +9283,32 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P7,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>Entities!Q7&amp;".java"</f>
         <v>OrderMapper.java</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L11" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Order'])</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9272,32 +9321,32 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P8,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>Entities!Q8&amp;".java"</f>
         <v>OrderDetailMapper.java</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L12" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
         <v>properties.findAll(['entityName':'OrderDetail'])</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9310,32 +9359,32 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P9,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>Entities!Q9&amp;".java"</f>
         <v>ProductMapper.java</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L13" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Product'])</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9348,32 +9397,32 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P10,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>Entities!Q10&amp;".java"</f>
         <v>StockMapper.java</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L14" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Stock'])</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="14" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -9386,32 +9435,32 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P11,".","/")</f>
-        <v>./generated/webshop/src/main/java/com/xlbean/sample/webshop/dao/mapper</v>
+        <v>./generated/webshop/src/main/java/org/xlbean/sample/webshop/dao/mapper</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>Entities!Q11&amp;".java"</f>
         <v>AddressMasterMapper.java</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L15" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
         <v>properties.findAll(['entityName':'AddressMaster'])</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9424,7 +9473,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P12,".","/")</f>
@@ -9435,21 +9484,21 @@
         <v>.java</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9462,7 +9511,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P13,".","/")</f>
@@ -9473,21 +9522,21 @@
         <v>.java</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9500,7 +9549,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P14,".","/")</f>
@@ -9511,21 +9560,21 @@
         <v>.java</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L18" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
         <v>properties.findAll(['entityName':''])</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9538,7 +9587,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P15,".","/")</f>
@@ -9549,14 +9598,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L19" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>

--- a/AppDefinition.xlsx
+++ b/AppDefinition.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\workspace\xltemplating\AppGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\AppGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="14" r:id="rId1"/>
@@ -898,10 +898,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ddl_mysql.txt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>entity.txt</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1226,6 +1222,10 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddl_h2.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1718,7 +1718,7 @@
         <v>231</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G1" t="s">
         <v>193</v>
@@ -1739,30 +1739,30 @@
         <v>196</v>
       </c>
       <c r="P1" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>261</v>
-      </c>
       <c r="S1" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>302</v>
-      </c>
       <c r="W1" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y1" t="s">
         <v>307</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="V2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1770,7 +1770,7 @@
         <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1798,7 +1798,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
@@ -1915,7 +1915,7 @@
         <v>CartMapperGen</v>
       </c>
       <c r="V6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W6" s="18" t="str">
         <f t="shared" ref="W6:W11" si="11">"/"&amp;LOWER(B6)&amp;V6</f>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
@@ -2347,46 +2347,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2407,7 +2407,7 @@
     </row>
     <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>207</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="9" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -2460,7 +2460,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S5,".","/")</f>
@@ -2471,14 +2471,14 @@
         <v>CustomerMapperGen.java</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="9" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -2502,7 +2502,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S6,".","/")</f>
@@ -2513,14 +2513,14 @@
         <v>CartMapperGen.java</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -2540,7 +2540,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S7,".","/")</f>
@@ -2551,14 +2551,14 @@
         <v>OrderMapperGen.java</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -2578,7 +2578,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S8,".","/")</f>
@@ -2589,14 +2589,14 @@
         <v>OrderDetailMapperGen.java</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -2616,7 +2616,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S9,".","/")</f>
@@ -2627,14 +2627,14 @@
         <v>ProductMapperGen.java</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -2654,7 +2654,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S10,".","/")</f>
@@ -2665,14 +2665,14 @@
         <v>StockMapperGen.java</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -2692,7 +2692,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S11,".","/")</f>
@@ -2703,14 +2703,14 @@
         <v>AddressMasterMapperGen.java</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -2730,7 +2730,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S12,".","/")</f>
@@ -2741,14 +2741,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -2768,7 +2768,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S13,".","/")</f>
@@ -2779,14 +2779,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -2806,7 +2806,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S14,".","/")</f>
@@ -2817,14 +2817,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -2844,7 +2844,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="10" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!S15,".","/")</f>
@@ -2855,14 +2855,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -2912,46 +2912,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -2972,7 +2972,7 @@
     </row>
     <row r="5" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>207</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="9" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -3025,7 +3025,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="9" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S5,".","/")</f>
@@ -3036,14 +3036,14 @@
         <v>CustomerMapperGen.xml</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="9" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -3067,7 +3067,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S6,".","/")</f>
@@ -3078,14 +3078,14 @@
         <v>CartMapperGen.xml</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -3105,7 +3105,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S7,".","/")</f>
@@ -3116,14 +3116,14 @@
         <v>OrderMapperGen.xml</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -3143,7 +3143,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S8,".","/")</f>
@@ -3154,14 +3154,14 @@
         <v>OrderDetailMapperGen.xml</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -3181,7 +3181,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S9,".","/")</f>
@@ -3192,14 +3192,14 @@
         <v>ProductMapperGen.xml</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -3219,7 +3219,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S10,".","/")</f>
@@ -3230,14 +3230,14 @@
         <v>StockMapperGen.xml</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -3257,7 +3257,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S11,".","/")</f>
@@ -3268,14 +3268,14 @@
         <v>AddressMasterMapperGen.xml</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -3295,7 +3295,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S12,".","/")</f>
@@ -3306,14 +3306,14 @@
         <v>.xml</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -3333,7 +3333,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S13,".","/")</f>
@@ -3344,14 +3344,14 @@
         <v>.xml</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -3371,7 +3371,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S14,".","/")</f>
@@ -3382,14 +3382,14 @@
         <v>.xml</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -3409,7 +3409,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!S15,".","/")</f>
@@ -3420,14 +3420,14 @@
         <v>.xml</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="9" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -5362,7 +5362,7 @@
         <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>143</v>
@@ -5663,7 +5663,7 @@
         <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5907,16 +5907,16 @@
         <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6116,7 +6116,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>129</v>
@@ -6319,7 +6319,7 @@
         <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -6983,10 +6983,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>148</v>
@@ -7008,10 +7008,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
@@ -7033,24 +7033,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
-        <v>247</v>
-      </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -7081,92 +7081,92 @@
   <sheetData>
     <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
         <v>294</v>
       </c>
-      <c r="G2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>298</v>
-      </c>
       <c r="L2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" t="s">
         <v>95</v>
       </c>
       <c r="L3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -7174,16 +7174,16 @@
         <v>82</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
         <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7196,8 +7196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7224,46 +7224,46 @@
         <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>253</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>254</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>255</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>256</v>
       </c>
-      <c r="G1" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -7284,10 +7284,10 @@
     </row>
     <row r="5" spans="1:16" ht="312.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
         <v>207</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="4" t="b">
         <v>1</v>
@@ -7338,14 +7338,14 @@
         <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="F9" s="17" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/resources/"</f>
         <v>./generated/webshop/src/main/resources/</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7362,7 +7362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -7391,46 +7391,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -7451,7 +7451,7 @@
     </row>
     <row r="5" spans="1:16" ht="218.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>207</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="16" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -7504,7 +7504,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="16" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X5,".","/")</f>
@@ -7515,14 +7515,14 @@
         <v>CustomerApi.java</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="16" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -7546,7 +7546,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="16" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X6,".","/")</f>
@@ -7557,14 +7557,14 @@
         <v>CartApi.java</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="16" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -7584,7 +7584,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F11" s="16" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X7,".","/")</f>
@@ -7595,14 +7595,14 @@
         <v>OrderApi.java</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -7622,7 +7622,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="16" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X8,".","/")</f>
@@ -7633,14 +7633,14 @@
         <v>OrderDetailApi.java</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -7660,7 +7660,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" s="16" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X9,".","/")</f>
@@ -7671,14 +7671,14 @@
         <v>ProductApi.java</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -7698,7 +7698,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" s="16" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X10,".","/")</f>
@@ -7709,14 +7709,14 @@
         <v>StockApi.java</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -7736,7 +7736,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="16" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X11,".","/")</f>
@@ -7747,14 +7747,14 @@
         <v>AddressMasterApi.java</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -7774,7 +7774,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" s="16" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X12,".","/")</f>
@@ -7785,14 +7785,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -7812,7 +7812,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F17" s="16" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X13,".","/")</f>
@@ -7823,14 +7823,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -7850,7 +7850,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F18" s="16" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X14,".","/")</f>
@@ -7861,14 +7861,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -7888,7 +7888,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F19" s="16" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!X15,".","/")</f>
@@ -7899,14 +7899,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="16" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="16" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -7956,46 +7956,46 @@
         <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8016,7 +8016,7 @@
     </row>
     <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -8036,7 +8036,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>207</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="4" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -8069,7 +8069,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J5,".","/")</f>
@@ -8080,14 +8080,14 @@
         <v>Customer.java</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -8111,7 +8111,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J6,".","/")</f>
@@ -8122,14 +8122,14 @@
         <v>Cart.java</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="4" t="str">
         <f t="shared" ref="J10:J15" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -8149,7 +8149,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J7,".","/")</f>
@@ -8160,14 +8160,14 @@
         <v>Order.java</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -8187,7 +8187,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J8,".","/")</f>
@@ -8198,14 +8198,14 @@
         <v>OrderDetail.java</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -8225,7 +8225,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J9,".","/")</f>
@@ -8236,14 +8236,14 @@
         <v>Product.java</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -8263,7 +8263,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J10,".","/")</f>
@@ -8274,14 +8274,14 @@
         <v>Stock.java</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -8301,7 +8301,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J11,".","/")</f>
@@ -8312,14 +8312,14 @@
         <v>AddressMaster.java</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="4" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -8339,7 +8339,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J12,".","/")</f>
@@ -8350,14 +8350,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="6" t="str">
         <f t="shared" ref="J16:J19" si="3">"entities["&amp;C16&amp;"]"</f>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -8378,7 +8378,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J13,".","/")</f>
@@ -8389,14 +8389,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -8417,7 +8417,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J14,".","/")</f>
@@ -8428,14 +8428,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -8456,7 +8456,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!J15,".","/")</f>
@@ -8467,14 +8467,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -8525,46 +8525,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -8585,7 +8585,7 @@
     </row>
     <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>207</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="6" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -8638,7 +8638,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="6" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M5,".","/")</f>
@@ -8649,14 +8649,14 @@
         <v>CustomerDao.java</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="6" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -8680,7 +8680,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" s="9" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M6,".","/")</f>
@@ -8691,14 +8691,14 @@
         <v>CartDao.java</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="6" t="str">
         <f t="shared" ref="J10:J15" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -8718,7 +8718,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M7,".","/")</f>
@@ -8729,14 +8729,14 @@
         <v>OrderDao.java</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -8756,7 +8756,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F12" s="9" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M8,".","/")</f>
@@ -8767,14 +8767,14 @@
         <v>OrderDetailDao.java</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -8794,7 +8794,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M9,".","/")</f>
@@ -8805,14 +8805,14 @@
         <v>ProductDao.java</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -8832,7 +8832,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="9" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M10,".","/")</f>
@@ -8843,14 +8843,14 @@
         <v>StockDao.java</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -8870,7 +8870,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M11,".","/")</f>
@@ -8881,14 +8881,14 @@
         <v>AddressMasterDao.java</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -8908,7 +8908,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="9" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M12,".","/")</f>
@@ -8919,14 +8919,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="6" t="str">
         <f t="shared" ref="J16:J19" si="3">"entities["&amp;C16&amp;"]"</f>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -8946,7 +8946,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" s="9" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M13,".","/")</f>
@@ -8957,14 +8957,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -8984,7 +8984,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" s="9" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M14,".","/")</f>
@@ -8995,14 +8995,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -9022,7 +9022,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F19" s="9" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!M15,".","/")</f>
@@ -9033,14 +9033,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="3"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="6" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
@@ -9090,46 +9090,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>257</v>
-      </c>
       <c r="I1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9150,7 +9150,7 @@
     </row>
     <row r="5" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>207</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="14" t="b">
         <f>LEN(G9)&gt;5</f>
@@ -9203,7 +9203,7 @@
         <v>212</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F9" s="14" t="str">
         <f>"./generated/"&amp;Entities!G5&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P5,".","/")</f>
@@ -9214,14 +9214,14 @@
         <v>CustomerMapper.java</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J9" s="14" t="str">
         <f>"entities["&amp;C9&amp;"]"</f>
         <v>entities[0]</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L9" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
@@ -9245,7 +9245,7 @@
         <v>212</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>"./generated/"&amp;Entities!G6&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P6,".","/")</f>
@@ -9256,14 +9256,14 @@
         <v>CartMapper.java</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="14" t="str">
         <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
         <v>entities[1]</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
@@ -9283,7 +9283,7 @@
         <v>212</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F11" s="14" t="str">
         <f>"./generated/"&amp;Entities!G7&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P7,".","/")</f>
@@ -9294,14 +9294,14 @@
         <v>OrderMapper.java</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[2]</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L11" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
@@ -9321,7 +9321,7 @@
         <v>212</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="14" t="str">
         <f>"./generated/"&amp;Entities!G8&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P8,".","/")</f>
@@ -9332,14 +9332,14 @@
         <v>OrderDetailMapper.java</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[3]</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L12" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
@@ -9359,7 +9359,7 @@
         <v>212</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" s="14" t="str">
         <f>"./generated/"&amp;Entities!G9&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P9,".","/")</f>
@@ -9370,14 +9370,14 @@
         <v>ProductMapper.java</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J13" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[4]</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
@@ -9397,7 +9397,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14" s="14" t="str">
         <f>"./generated/"&amp;Entities!G10&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P10,".","/")</f>
@@ -9408,14 +9408,14 @@
         <v>StockMapper.java</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J14" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[5]</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
@@ -9435,7 +9435,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F15" s="14" t="str">
         <f>"./generated/"&amp;Entities!G11&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P11,".","/")</f>
@@ -9446,14 +9446,14 @@
         <v>AddressMasterMapper.java</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J15" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[6]</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
@@ -9473,7 +9473,7 @@
         <v>212</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F16" s="14" t="str">
         <f>"./generated/"&amp;Entities!G12&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P12,".","/")</f>
@@ -9484,14 +9484,14 @@
         <v>.java</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J16" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[7]</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
@@ -9511,7 +9511,7 @@
         <v>212</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="14" t="str">
         <f>"./generated/"&amp;Entities!G13&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P13,".","/")</f>
@@ -9522,14 +9522,14 @@
         <v>.java</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J17" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[8]</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
@@ -9549,7 +9549,7 @@
         <v>212</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" s="14" t="str">
         <f>"./generated/"&amp;Entities!G14&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P14,".","/")</f>
@@ -9560,14 +9560,14 @@
         <v>.java</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[9]</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L18" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
@@ -9587,7 +9587,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="14" t="str">
         <f>"./generated/"&amp;Entities!G15&amp;"/src/main/java/"&amp;SUBSTITUTE(Entities!P15,".","/")</f>
@@ -9598,14 +9598,14 @@
         <v>.java</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="14" t="str">
         <f t="shared" si="1"/>
         <v>entities[10]</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L19" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>

--- a/AppDefinition.xlsx
+++ b/AppDefinition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="14" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="gen_Entity" sheetId="17" r:id="rId7"/>
     <sheet name="gen_DAO" sheetId="19" r:id="rId8"/>
     <sheet name="gen_Mapper" sheetId="23" r:id="rId9"/>
-    <sheet name="gen_MapperGen" sheetId="20" r:id="rId10"/>
-    <sheet name="gen_MapperXmlGen" sheetId="21" r:id="rId11"/>
-    <sheet name="vlookup" sheetId="15" r:id="rId12"/>
-    <sheet name="bk" sheetId="18" r:id="rId13"/>
-    <sheet name="Database-Entity" sheetId="10" r:id="rId14"/>
-    <sheet name="Entity-DB" sheetId="13" r:id="rId15"/>
+    <sheet name="gen_MapperXml" sheetId="25" r:id="rId10"/>
+    <sheet name="gen_MapperGen" sheetId="20" r:id="rId11"/>
+    <sheet name="gen_MapperXmlGen" sheetId="21" r:id="rId12"/>
+    <sheet name="vlookup" sheetId="15" r:id="rId13"/>
+    <sheet name="bk" sheetId="18" r:id="rId14"/>
+    <sheet name="Database-Entity" sheetId="10" r:id="rId15"/>
+    <sheet name="Entity-DB" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Database-Entity'!$D$3:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Database-Entity'!$D$3:$D$35</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="318">
   <si>
     <t>####</t>
     <phoneticPr fontId="1"/>
@@ -1226,6 +1227,10 @@
   </si>
   <si>
     <t>ddl_h2.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mapper_xml.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1291,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1350,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1674,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2315,6 +2326,567 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624FC99C-44CF-4B52-B620-3EA6B5E86366}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="10.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.4140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="104.08203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="20"/>
+    <col min="9" max="9" width="9.75" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="44.25" style="20" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="20" customWidth="1"/>
+    <col min="14" max="14" width="20.75" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="20" customWidth="1"/>
+    <col min="16" max="16" width="11.4140625" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="20" t="b">
+        <f>LEN(G9)&gt;5</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G5&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P5,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G9" s="20" t="str">
+        <f>Entities!Q5&amp;".xml"</f>
+        <v>CustomerMapper.xml</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f>"entities["&amp;C9&amp;"]"</f>
+        <v>entities[0]</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'Customer'])</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="20" t="b">
+        <f t="shared" ref="B10:B19" si="0">LEN(G10)&gt;5</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <f>C9+1</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F10" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G6&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P6,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G10" s="20" t="str">
+        <f>Entities!Q6&amp;".xml"</f>
+        <v>CartMapper.xml</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="20" t="str">
+        <f t="shared" ref="J10:J19" si="1">"entities["&amp;C10&amp;"]"</f>
+        <v>entities[1]</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C6&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'Cart'])</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:C19" si="2">C10+1</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G7&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P7,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G11" s="20" t="str">
+        <f>Entities!Q7&amp;".xml"</f>
+        <v>OrderMapper.xml</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[2]</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L11" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C7&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'Order'])</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G8&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P8,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G12" s="20" t="str">
+        <f>Entities!Q8&amp;".xml"</f>
+        <v>OrderDetailMapper.xml</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[3]</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C8&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'OrderDetail'])</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G9&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P9,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G13" s="20" t="str">
+        <f>Entities!Q9&amp;".xml"</f>
+        <v>ProductMapper.xml</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[4]</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L13" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C9&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'Product'])</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G10&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P10,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G14" s="20" t="str">
+        <f>Entities!Q10&amp;".xml"</f>
+        <v>StockMapper.xml</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[5]</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C10&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'Stock'])</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G11&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P11,".","/")</f>
+        <v>./generated/webshop/src/main/resources/org/xlbean/sample/webshop/dao/mapper</v>
+      </c>
+      <c r="G15" s="20" t="str">
+        <f>Entities!Q11&amp;".xml"</f>
+        <v>AddressMasterMapper.xml</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[6]</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L15" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C11&amp;"'])"</f>
+        <v>properties.findAll(['entityName':'AddressMaster'])</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G12&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P12,".","/")</f>
+        <v>./generated//src/main/resources/</v>
+      </c>
+      <c r="G16" s="20" t="str">
+        <f>Entities!Q12&amp;".xml"</f>
+        <v>.xml</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[7]</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C12&amp;"'])"</f>
+        <v>properties.findAll(['entityName':''])</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G13&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P13,".","/")</f>
+        <v>./generated//src/main/resources/</v>
+      </c>
+      <c r="G17" s="20" t="str">
+        <f>Entities!Q13&amp;".xml"</f>
+        <v>.xml</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[8]</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C13&amp;"'])"</f>
+        <v>properties.findAll(['entityName':''])</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G14&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P14,".","/")</f>
+        <v>./generated//src/main/resources/</v>
+      </c>
+      <c r="G18" s="20" t="str">
+        <f>Entities!Q14&amp;".xml"</f>
+        <v>.xml</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[9]</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C14&amp;"'])"</f>
+        <v>properties.findAll(['entityName':''])</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="20" t="str">
+        <f>"./generated/"&amp;Entities!G15&amp;"/src/main/resources/"&amp;SUBSTITUTE(Entities!P15,".","/")</f>
+        <v>./generated//src/main/resources/</v>
+      </c>
+      <c r="G19" s="20" t="str">
+        <f>Entities!Q15&amp;".xml"</f>
+        <v>.xml</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="J19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>entities[10]</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f>"properties.findAll(['entityName':'"&amp;Entities!C15&amp;"'])"</f>
+        <v>properties.findAll(['entityName':''])</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -2409,15 +2981,15 @@
       <c r="A5" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="8"/>
@@ -2879,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -2974,15 +3546,15 @@
       <c r="A5" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="8"/>
@@ -3444,7 +4016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3514,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3527,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -4649,7 +5221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:R31"/>
   <sheetViews>
@@ -7196,7 +7768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
@@ -7286,17 +7858,17 @@
       <c r="A5" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="2"/>
@@ -7453,15 +8025,15 @@
       <c r="A5" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="15"/>
@@ -8018,15 +8590,15 @@
       <c r="A5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="3"/>
@@ -8587,15 +9159,15 @@
       <c r="A5" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="5"/>
@@ -9061,9 +9633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -9152,15 +9722,15 @@
       <c r="A5" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="13"/>
@@ -9226,10 +9796,6 @@
       <c r="L9" s="14" t="str">
         <f>"properties.findAll(['entityName':'"&amp;Entities!C5&amp;"'])"</f>
         <v>properties.findAll(['entityName':'Customer'])</v>
-      </c>
-      <c r="P9" s="14">
-        <f>C9</f>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
